--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,156 @@
         <v>-274500</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-01-28 02:41:17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>100</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>-420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-01-28 23:17:46</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>500</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>20</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>100</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>-300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,156 @@
         <v>-300000</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-01-30 08:27:20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L5" t="n">
+        <v>100</v>
+      </c>
+      <c r="M5" t="n">
+        <v>500</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>150</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>681000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-01-30 20:00:55</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L6" t="n">
+        <v>100</v>
+      </c>
+      <c r="M6" t="n">
+        <v>500</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>200</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>579000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +925,81 @@
         <v>579000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-01-31 01:32:09</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>500</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>200</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>-974000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1375,6 +1375,81 @@
         <v>299000</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-02-06 23:45:07</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
+      <c r="M13" t="n">
+        <v>500</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>100</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>-667000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,6 +1450,606 @@
         <v>-667000</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-02-10 00:29:47</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L14" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" t="n">
+        <v>500</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>500</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>150</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-02-10 18:10:16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L15" t="n">
+        <v>100</v>
+      </c>
+      <c r="M15" t="n">
+        <v>500</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>500</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>150</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-02-12 08:25:39</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" t="n">
+        <v>500</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>100</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>1581000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-02-12 08:38:06</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" t="n">
+        <v>500</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>200</v>
+      </c>
+      <c r="R17" t="n">
+        <v>20</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>100</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>-21600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-02-12 11:36:44</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L18" t="n">
+        <v>100</v>
+      </c>
+      <c r="M18" t="n">
+        <v>500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>200</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-02-12 12:03:08</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>100</v>
+      </c>
+      <c r="M19" t="n">
+        <v>500</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>200</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-02-12 16:48:11</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>32</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L20" t="n">
+        <v>100</v>
+      </c>
+      <c r="M20" t="n">
+        <v>500</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>500</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>150</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-02-13 14:04:23</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="n">
+        <v>500</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>150</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>-111000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2050,6 +2050,231 @@
         <v>-111000</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:29:57</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L22" t="n">
+        <v>100</v>
+      </c>
+      <c r="M22" t="n">
+        <v>500</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>200</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>100</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>-53800</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-02-21 19:05:00</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" t="n">
+        <v>500</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>200</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>100</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>-67600</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-02-21 22:35:33</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>500</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>200</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>100</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2275,6 +2275,381 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-02-22 11:35:05</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+      <c r="M25" t="n">
+        <v>500</v>
+      </c>
+      <c r="N25" t="n">
+        <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>500</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>100</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-02-24 00:03:34</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" t="n">
+        <v>500</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>200</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>100</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>-30800</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-02-24 00:20:11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" t="n">
+        <v>500</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>500</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>100</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-02-24 01:22:17</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>43</v>
+      </c>
+      <c r="C28" t="n">
+        <v>29</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" t="n">
+        <v>500</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>200</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>80</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>-160200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-02-24 13:52:25</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" t="n">
+        <v>500</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>200</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>70</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>43800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2650,6 +2650,381 @@
         <v>43800</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-02-24 23:08:57</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>21</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" t="n">
+        <v>500</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>200</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>70</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>-18600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-03-17 21:46:40</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>54</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>500</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>70</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.4259259259259259</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>-488000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-03-18 22:01:06</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>500</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>70</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-03-27 09:03:27</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="n">
+        <v>500</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>50</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-03-28 00:08:37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>61</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="n">
+        <v>500</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>50</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>1161000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,6 +3025,81 @@
         <v>1161000</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-03-29 02:10:45</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>31</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+      <c r="M35" t="n">
+        <v>500</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>200</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>70</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.3548387096774194</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>-32600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>Ganancia</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Juego</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -624,6 +629,7 @@
       <c r="W2" t="n">
         <v>273000</v>
       </c>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -699,6 +705,7 @@
       <c r="W3" t="n">
         <v>279000</v>
       </c>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -774,6 +781,7 @@
       <c r="W4" t="n">
         <v>-228000</v>
       </c>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -849,6 +857,7 @@
       <c r="W5" t="n">
         <v>-162000</v>
       </c>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -924,6 +933,7 @@
       <c r="W6" t="n">
         <v>309000</v>
       </c>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -999,6 +1009,7 @@
       <c r="W7" t="n">
         <v>75000</v>
       </c>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1074,6 +1085,7 @@
       <c r="W8" t="n">
         <v>-72000</v>
       </c>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1149,6 +1161,7 @@
       <c r="W9" t="n">
         <v>410000</v>
       </c>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1224,6 +1237,7 @@
       <c r="W10" t="n">
         <v>-25600</v>
       </c>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1299,6 +1313,7 @@
       <c r="W11" t="n">
         <v>244000</v>
       </c>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1374,6 +1389,7 @@
       <c r="W12" t="n">
         <v>299000</v>
       </c>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1449,6 +1465,7 @@
       <c r="W13" t="n">
         <v>-667000</v>
       </c>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1524,6 +1541,7 @@
       <c r="W14" t="n">
         <v>229500</v>
       </c>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1599,6 +1617,7 @@
       <c r="W15" t="n">
         <v>255000</v>
       </c>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1674,6 +1693,7 @@
       <c r="W16" t="n">
         <v>1581000</v>
       </c>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1749,6 +1769,7 @@
       <c r="W17" t="n">
         <v>-21600</v>
       </c>
+      <c r="X17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1824,6 +1845,7 @@
       <c r="W18" t="n">
         <v>148000</v>
       </c>
+      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1899,6 +1921,7 @@
       <c r="W19" t="n">
         <v>510000</v>
       </c>
+      <c r="X19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1974,6 +1997,7 @@
       <c r="W20" t="n">
         <v>52500</v>
       </c>
+      <c r="X20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2049,6 +2073,7 @@
       <c r="W21" t="n">
         <v>-111000</v>
       </c>
+      <c r="X21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2124,6 +2149,7 @@
       <c r="W22" t="n">
         <v>-53800</v>
       </c>
+      <c r="X22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2199,6 +2225,7 @@
       <c r="W23" t="n">
         <v>-67600</v>
       </c>
+      <c r="X23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2274,6 +2301,7 @@
       <c r="W24" t="n">
         <v>30200</v>
       </c>
+      <c r="X24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2349,6 +2377,7 @@
       <c r="W25" t="n">
         <v>98000</v>
       </c>
+      <c r="X25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2424,6 +2453,7 @@
       <c r="W26" t="n">
         <v>-30800</v>
       </c>
+      <c r="X26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2499,6 +2529,7 @@
       <c r="W27" t="n">
         <v>53000</v>
       </c>
+      <c r="X27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2574,6 +2605,7 @@
       <c r="W28" t="n">
         <v>-160200</v>
       </c>
+      <c r="X28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2649,6 +2681,7 @@
       <c r="W29" t="n">
         <v>43800</v>
       </c>
+      <c r="X29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2724,6 +2757,7 @@
       <c r="W30" t="n">
         <v>-18600</v>
       </c>
+      <c r="X30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2799,6 +2833,7 @@
       <c r="W31" t="n">
         <v>-488000</v>
       </c>
+      <c r="X31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2874,6 +2909,7 @@
       <c r="W32" t="n">
         <v>392000</v>
       </c>
+      <c r="X32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2949,6 +2985,7 @@
       <c r="W33" t="n">
         <v>0</v>
       </c>
+      <c r="X33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3024,6 +3061,7 @@
       <c r="W34" t="n">
         <v>1161000</v>
       </c>
+      <c r="X34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3098,6 +3136,87 @@
       </c>
       <c r="W35" t="n">
         <v>-32600</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-30 19:24:12</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" t="n">
+        <v>500</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>9</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>100</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>29000</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3219,6 +3219,486 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-04-07 00:23:03</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>500</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>9</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>100</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>196000</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-04-14 19:49:46</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" t="n">
+        <v>500</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>100</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>136000</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-04-18 21:37:03</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>500</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>500</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>90</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>-314500</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-04-20 22:25:44</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>188</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>17</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+      <c r="M40" t="n">
+        <v>500</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>500</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>10</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1808510638297872</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>59500</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-04-20 23:11:48</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>67</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+      <c r="M41" t="n">
+        <v>500</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>9</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>500</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>50</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1194029850746269</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>-41000</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-04-21 01:04:36</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>500</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>90</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>533000</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,6 +3699,566 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-04-27 18:43:58</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>77</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M43" t="n">
+        <v>500</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>500</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>20</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.3376623376623377</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>-206500</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-04-27 18:59:38</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>61</v>
+      </c>
+      <c r="C44" t="n">
+        <v>51</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14</v>
+      </c>
+      <c r="E44" t="n">
+        <v>37</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>500</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>200</v>
+      </c>
+      <c r="R44" t="n">
+        <v>20</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>50</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>517800</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-04-27 20:05:10</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>23</v>
+      </c>
+      <c r="C45" t="n">
+        <v>22</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="n">
+        <v>500</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>200</v>
+      </c>
+      <c r="R45" t="n">
+        <v>10</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>90</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>161000</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-04-27 20:46:17</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>500</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>500</v>
+      </c>
+      <c r="R46" t="n">
+        <v>10</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>90</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>-376000</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-04-28 00:07:12</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
+      <c r="M47" t="n">
+        <v>500</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>90</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>230000</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-04-28 18:36:21</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16</v>
+      </c>
+      <c r="C48" t="n">
+        <v>11</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+      <c r="M48" t="n">
+        <v>500</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>100</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>90</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>-9200</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-04-29 00:32:25</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="n">
+        <v>500</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>9</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>200</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>90</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>15000</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,6 +4259,326 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-04-29 07:27:37</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="n">
+        <v>500</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="n">
+        <v>9</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>200</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>90</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>-29600</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-04-30 18:50:34</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>26</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>500</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10</v>
+      </c>
+      <c r="O51" t="n">
+        <v>9</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>90</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>328000</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-01 09:09:41</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="n">
+        <v>500</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+      <c r="O52" t="n">
+        <v>9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>90</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>250000</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-01 18:22:17</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>14</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" t="n">
+        <v>500</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" t="n">
+        <v>9</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>400</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>90</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>-110800</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4579,6 +4579,486 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-04 21:08:45</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" t="n">
+        <v>500</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>400</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>90</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>-41200</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-04 23:16:28</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L55" t="n">
+        <v>100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>500</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>100</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>90</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>-23900</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-06 21:50:51</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="n">
+        <v>500</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>100</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>90</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>-45300</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:17:23</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L57" t="n">
+        <v>100</v>
+      </c>
+      <c r="M57" t="n">
+        <v>500</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>400</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>90</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>-73200</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-14 00:10:08</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L58" t="n">
+        <v>100</v>
+      </c>
+      <c r="M58" t="n">
+        <v>500</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10</v>
+      </c>
+      <c r="O58" t="n">
+        <v>9</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>400</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>90</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>47200</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-26 01:14:41</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L59" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" t="n">
+        <v>500</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>90</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>54000</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,6 +5059,326 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-06-06 18:52:18</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>39</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L60" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" t="n">
+        <v>500</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>70</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>-103000</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-06-06 23:24:27</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>39</v>
+      </c>
+      <c r="C61" t="n">
+        <v>29</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>15</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L61" t="n">
+        <v>100</v>
+      </c>
+      <c r="M61" t="n">
+        <v>500</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="n">
+        <v>70</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.7435897435897436</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>-29000</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-06-10 22:38:38</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L62" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>500</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10</v>
+      </c>
+      <c r="O62" t="n">
+        <v>9</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="n">
+        <v>70</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>150000</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-13 19:36:58</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>35</v>
+      </c>
+      <c r="C63" t="n">
+        <v>21</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>500</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>70</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>-907000</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,86 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-07-22 00:05:53</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>./Data/Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>233000</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,86 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-07-22 21:13:19</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L4" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" t="n">
+        <v>500</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>./Data/Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>328000</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Juego</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Predecidos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -634,6 +639,7 @@
           <t>No es Simulación</t>
         </is>
       </c>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -714,6 +720,7 @@
           <t>No es Simulación</t>
         </is>
       </c>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -793,6 +800,72 @@
         <is>
           <t>No es Simulación</t>
         </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-07-28 16:00:48</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>./Data/Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,136 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-04 22:11:04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>20</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_ruleta\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-04 22:13:50</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>20</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_ruleta\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,201 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-01 15:23:05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>20</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>C:\Users\jgcorrea\Desktop\Repositorio\Predictor_ruleta\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-01 15:27:01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>20</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>C:\Users\jgcorrea\Desktop\Repositorio\Predictor_ruleta\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-01 15:33:43</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>20</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>C:\Users\jgcorrea\Desktop\Repositorio\Predictor_ruleta\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,6 +1063,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-01 21:15:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>50</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_ruleta_ejecutable\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,6 +1128,526 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:58:41</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_ruleta_ejecutable\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:12:40</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>20</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2444444444444444</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:16:42</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>50</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:19:53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>10</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:23:31</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.3402061855670103</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:38:20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:43:44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>40</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-09-07 14:45:55</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>10</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_app\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,6 +1648,71 @@
         <v>56</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:30:11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>50</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>D:\Repositorio\jonatha1992\Predictor_ruleta\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_juego.xlsx
+++ b/Reporte_juego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,6 +1713,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:06:44</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>50</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_App\Data\Crupier.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-05 14:54:13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>20</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>C:\Users\jonat\OneDrive\Escritorio\Repositorio\jonatha1992\Predictor_App\Data\Electromecanica.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>No es Simulación</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
